--- a/trainingData.xlsx
+++ b/trainingData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="121">
   <si>
     <t>epoch</t>
   </si>
@@ -35,241 +35,358 @@
     <t>acurracy</t>
   </si>
   <si>
-    <t>0.6246</t>
-  </si>
-  <si>
-    <t>0.5496</t>
-  </si>
-  <si>
-    <t>0.4975</t>
-  </si>
-  <si>
-    <t>0.4665</t>
-  </si>
-  <si>
-    <t>0.4964</t>
-  </si>
-  <si>
-    <t>0.4535</t>
-  </si>
-  <si>
-    <t>0.4300</t>
-  </si>
-  <si>
-    <t>0.4193</t>
-  </si>
-  <si>
     <t>0.3928</t>
   </si>
   <si>
-    <t>0.4132</t>
-  </si>
-  <si>
-    <t>0.4108</t>
-  </si>
-  <si>
-    <t>0.3919</t>
-  </si>
-  <si>
-    <t>0.7602</t>
-  </si>
-  <si>
-    <t>0.7495</t>
-  </si>
-  <si>
-    <t>0.6529</t>
-  </si>
-  <si>
-    <t>0.7107</t>
-  </si>
-  <si>
-    <t>0.7788</t>
-  </si>
-  <si>
-    <t>0.7962</t>
-  </si>
-  <si>
-    <t>0.8223</t>
-  </si>
-  <si>
-    <t>0.8009</t>
-  </si>
-  <si>
-    <t>0.8089</t>
-  </si>
-  <si>
-    <t>0.8136</t>
-  </si>
-  <si>
-    <t>0.8263</t>
-  </si>
-  <si>
-    <t>0.3657</t>
-  </si>
-  <si>
-    <t>0.3415</t>
-  </si>
-  <si>
-    <t>0.3418</t>
-  </si>
-  <si>
-    <t>0.2983</t>
-  </si>
-  <si>
-    <t>0.2842</t>
-  </si>
-  <si>
-    <t>0.2960</t>
-  </si>
-  <si>
-    <t>0.2969</t>
-  </si>
-  <si>
-    <t>0.2611</t>
-  </si>
-  <si>
-    <t>0.8330</t>
-  </si>
-  <si>
-    <t>0.8429</t>
-  </si>
-  <si>
-    <t>0.8528</t>
-  </si>
-  <si>
-    <t>0.8777</t>
-  </si>
-  <si>
-    <t>0.8876</t>
-  </si>
-  <si>
-    <t>0.8813</t>
-  </si>
-  <si>
-    <t>0.8674</t>
-  </si>
-  <si>
-    <t>0.8943</t>
-  </si>
-  <si>
     <t>val_loss</t>
   </si>
   <si>
     <t>val_acurracy</t>
   </si>
   <si>
-    <t>0.6027</t>
-  </si>
-  <si>
-    <t>0.4939</t>
-  </si>
-  <si>
-    <t>0.4776</t>
-  </si>
-  <si>
-    <t>0.5099</t>
-  </si>
-  <si>
-    <t>0.4262</t>
-  </si>
-  <si>
-    <t>0.4016</t>
-  </si>
-  <si>
-    <t>0.4004</t>
-  </si>
-  <si>
-    <t>0.4031</t>
-  </si>
-  <si>
-    <t>0.6695</t>
-  </si>
-  <si>
-    <t>0.4267</t>
-  </si>
-  <si>
-    <t>0.3722</t>
-  </si>
-  <si>
-    <t>0.3776</t>
-  </si>
-  <si>
-    <t>0.7380</t>
-  </si>
-  <si>
-    <t>0.7566</t>
-  </si>
-  <si>
-    <t>0.7436</t>
-  </si>
-  <si>
-    <t>0.7887</t>
-  </si>
-  <si>
-    <t>0.8120</t>
-  </si>
-  <si>
-    <t>0.8057</t>
-  </si>
-  <si>
-    <t>0.8271</t>
-  </si>
-  <si>
-    <t>0.6854</t>
-  </si>
-  <si>
-    <t>0.8342</t>
-  </si>
-  <si>
-    <t>0.8334</t>
-  </si>
-  <si>
-    <t>0.6803</t>
-  </si>
-  <si>
-    <t>0.3133</t>
-  </si>
-  <si>
-    <t>0.3353</t>
-  </si>
-  <si>
-    <t>0.2747</t>
-  </si>
-  <si>
-    <t>0.2797</t>
-  </si>
-  <si>
-    <t>0.2634</t>
-  </si>
-  <si>
-    <t>0.2987</t>
-  </si>
-  <si>
-    <t>0.2386</t>
-  </si>
-  <si>
-    <t>0.2419</t>
-  </si>
-  <si>
-    <t>0.8738</t>
-  </si>
-  <si>
-    <t>0.8631</t>
-  </si>
-  <si>
-    <t>0.8888</t>
-  </si>
-  <si>
-    <t>0.8920</t>
-  </si>
-  <si>
-    <t>0.8595</t>
-  </si>
-  <si>
-    <t>0.8975</t>
-  </si>
-  <si>
-    <t>0.8995</t>
+    <t>Epoch 1/20</t>
+  </si>
+  <si>
+    <t>79/79 [==============================] - 215s 3s/step - loss: 0.6598 - accuracy: 0.6173 - val_loss: 0.6010 - val_accuracy: 0.6818</t>
+  </si>
+  <si>
+    <t>Epoch 2/20</t>
+  </si>
+  <si>
+    <t>79/79 [==============================] - 64s 804ms/step - loss: 0.5752 - accuracy: 0.7000 - val_loss: 0.5275 - val_accuracy: 0.7289</t>
+  </si>
+  <si>
+    <t>Epoch 3/20</t>
+  </si>
+  <si>
+    <t>79/79 [==============================] - 31s 388ms/step - loss: 0.5368 - accuracy: 0.7234 - val_loss: 0.6132 - val_accuracy: 0.6640</t>
+  </si>
+  <si>
+    <t>Epoch 4/20</t>
+  </si>
+  <si>
+    <t>79/79 [==============================] - 30s 380ms/step - loss: 0.5264 - accuracy: 0.7281 - val_loss: 0.4742 - val_accuracy: 0.7574</t>
+  </si>
+  <si>
+    <t>Epoch 5/20</t>
+  </si>
+  <si>
+    <t>79/79 [==============================] - 30s 383ms/step - loss: 0.4749 - accuracy: 0.7732 - val_loss: 0.4554 - val_accuracy: 0.7721</t>
+  </si>
+  <si>
+    <t>Epoch 6/20</t>
+  </si>
+  <si>
+    <t>79/79 [==============================] - 31s 389ms/step - loss: 0.4568 - accuracy: 0.7780 - val_loss: 0.4276 - val_accuracy: 0.7994</t>
+  </si>
+  <si>
+    <t>Epoch 7/20</t>
+  </si>
+  <si>
+    <t>79/79 [==============================] - 33s 423ms/step - loss: 0.4489 - accuracy: 0.7871 - val_loss: 0.4451 - val_accuracy: 0.7950</t>
+  </si>
+  <si>
+    <t>Epoch 8/20</t>
+  </si>
+  <si>
+    <t>79/79 [==============================] - 63s 808ms/step - loss: 0.4533 - accuracy: 0.7843 - val_loss: 0.3961 - val_accuracy: 0.8077</t>
+  </si>
+  <si>
+    <t>Epoch 9/20</t>
+  </si>
+  <si>
+    <t>79/79 [==============================] - 51s 647ms/step - loss: 0.4372 - accuracy: 0.7954 - val_loss: 0.4184 - val_accuracy: 0.8128</t>
+  </si>
+  <si>
+    <t>Epoch 10/20</t>
+  </si>
+  <si>
+    <t>79/79 [==============================] - 30s 375ms/step - loss: 0.4171 - accuracy: 0.8124 - val_loss: 0.4421 - val_accuracy: 0.8077</t>
+  </si>
+  <si>
+    <t>Epoch 11/20</t>
+  </si>
+  <si>
+    <t>79/79 [==============================] - 26s 334ms/step - loss: 0.4126 - accuracy: 0.8093 - val_loss: 0.3928 - val_accuracy: 0.8259</t>
+  </si>
+  <si>
+    <t>Epoch 12/20</t>
+  </si>
+  <si>
+    <t>79/79 [==============================] - 26s 328ms/step - loss: 0.3946 - accuracy: 0.8160 - val_loss: 0.3701 - val_accuracy: 0.8180</t>
+  </si>
+  <si>
+    <t>Epoch 13/20</t>
+  </si>
+  <si>
+    <t>79/79 [==============================] - 26s 329ms/step - loss: 0.4138 - accuracy: 0.8037 - val_loss: 0.3571 - val_accuracy: 0.8287</t>
+  </si>
+  <si>
+    <t>Epoch 14/20</t>
+  </si>
+  <si>
+    <t>79/79 [==============================] - 26s 325ms/step - loss: 0.3809 - accuracy: 0.8188 - val_loss: 0.3601 - val_accuracy: 0.8472</t>
+  </si>
+  <si>
+    <t>Epoch 15/20</t>
+  </si>
+  <si>
+    <t>79/79 [==============================] - 26s 329ms/step - loss: 0.3441 - accuracy: 0.8480 - val_loss: 0.4003 - val_accuracy: 0.8180</t>
+  </si>
+  <si>
+    <t>Epoch 16/20</t>
+  </si>
+  <si>
+    <t>79/79 [==============================] - 27s 344ms/step - loss: 0.3453 - accuracy: 0.8512 - val_loss: 0.3270 - val_accuracy: 0.8639</t>
+  </si>
+  <si>
+    <t>Epoch 17/20</t>
+  </si>
+  <si>
+    <t>79/79 [==============================] - 35s 440ms/step - loss: 0.3428 - accuracy: 0.8465 - val_loss: 0.2900 - val_accuracy: 0.8757</t>
+  </si>
+  <si>
+    <t>Epoch 18/20</t>
+  </si>
+  <si>
+    <t>79/79 [==============================] - 28s 349ms/step - loss: 0.3165 - accuracy: 0.8651 - val_loss: 0.2942 - val_accuracy: 0.8769</t>
+  </si>
+  <si>
+    <t>Epoch 19/20</t>
+  </si>
+  <si>
+    <t>79/79 [==============================] - 30s 375ms/step - loss: 0.3325 - accuracy: 0.8560 - val_loss: 0.3051 - val_accuracy: 0.8417</t>
+  </si>
+  <si>
+    <t>Epoch 20/20</t>
+  </si>
+  <si>
+    <t>79/79 [==============================] - 50s 643ms/step - loss: 0.3099 - accuracy: 0.8635 - val_loss: 0.2930 - val_accuracy: 0.8789</t>
+  </si>
+  <si>
+    <t>0.6598</t>
+  </si>
+  <si>
+    <t>0.6173</t>
+  </si>
+  <si>
+    <t>0.6010</t>
+  </si>
+  <si>
+    <t>0.6818</t>
+  </si>
+  <si>
+    <t>0.5752</t>
+  </si>
+  <si>
+    <t>0.7000</t>
+  </si>
+  <si>
+    <t>0.5275</t>
+  </si>
+  <si>
+    <t>0.7289</t>
+  </si>
+  <si>
+    <t>0.5368</t>
+  </si>
+  <si>
+    <t>0.7234</t>
+  </si>
+  <si>
+    <t>0.6132</t>
+  </si>
+  <si>
+    <t>0.6640</t>
+  </si>
+  <si>
+    <t>0.5264</t>
+  </si>
+  <si>
+    <t>0.7281</t>
+  </si>
+  <si>
+    <t>0.4742</t>
+  </si>
+  <si>
+    <t>0.7574</t>
+  </si>
+  <si>
+    <t>0.4749</t>
+  </si>
+  <si>
+    <t>0.7732</t>
+  </si>
+  <si>
+    <t>0.4554</t>
+  </si>
+  <si>
+    <t>0.4568</t>
+  </si>
+  <si>
+    <t>0.7780</t>
+  </si>
+  <si>
+    <t>0.4276</t>
+  </si>
+  <si>
+    <t>0.7994</t>
+  </si>
+  <si>
+    <t>0.4489</t>
+  </si>
+  <si>
+    <t>0.7871</t>
+  </si>
+  <si>
+    <t>0.4451</t>
+  </si>
+  <si>
+    <t>0.7950</t>
+  </si>
+  <si>
+    <t>0.4533</t>
+  </si>
+  <si>
+    <t>0.7843</t>
+  </si>
+  <si>
+    <t>0.3961</t>
+  </si>
+  <si>
+    <t>0.8077</t>
+  </si>
+  <si>
+    <t>0.4372</t>
+  </si>
+  <si>
+    <t>0.7954</t>
+  </si>
+  <si>
+    <t>0.4184</t>
+  </si>
+  <si>
+    <t>0.8128</t>
+  </si>
+  <si>
+    <t>0.4171</t>
+  </si>
+  <si>
+    <t>0.8124</t>
+  </si>
+  <si>
+    <t>0.4421</t>
+  </si>
+  <si>
+    <t>0.4126</t>
+  </si>
+  <si>
+    <t>0.8093</t>
+  </si>
+  <si>
+    <t>0.8259</t>
+  </si>
+  <si>
+    <t>0.3946</t>
+  </si>
+  <si>
+    <t>0.8160</t>
+  </si>
+  <si>
+    <t>0.3701</t>
+  </si>
+  <si>
+    <t>0.8180</t>
+  </si>
+  <si>
+    <t>0.4138</t>
+  </si>
+  <si>
+    <t>0.8037</t>
+  </si>
+  <si>
+    <t>0.3571</t>
+  </si>
+  <si>
+    <t>0.3809</t>
+  </si>
+  <si>
+    <t>0.8188</t>
+  </si>
+  <si>
+    <t>0.3601</t>
+  </si>
+  <si>
+    <t>0.8472</t>
+  </si>
+  <si>
+    <t>0.3441</t>
+  </si>
+  <si>
+    <t>0.8480</t>
+  </si>
+  <si>
+    <t>0.4003</t>
+  </si>
+  <si>
+    <t>0.3453</t>
+  </si>
+  <si>
+    <t>0.8512</t>
+  </si>
+  <si>
+    <t>0.3270</t>
+  </si>
+  <si>
+    <t>0.8639</t>
+  </si>
+  <si>
+    <t>0.3428</t>
+  </si>
+  <si>
+    <t>0.8465</t>
+  </si>
+  <si>
+    <t>0.2900</t>
+  </si>
+  <si>
+    <t>0.8769</t>
+  </si>
+  <si>
+    <t>0.8757</t>
+  </si>
+  <si>
+    <t>0.3165</t>
+  </si>
+  <si>
+    <t>0.8651</t>
+  </si>
+  <si>
+    <t>0.2942</t>
+  </si>
+  <si>
+    <t>0.3325</t>
+  </si>
+  <si>
+    <t>0.8560</t>
+  </si>
+  <si>
+    <t>0.3051</t>
+  </si>
+  <si>
+    <t>0.8417</t>
+  </si>
+  <si>
+    <t>0.3099</t>
+  </si>
+  <si>
+    <t>0.8635</t>
+  </si>
+  <si>
+    <t>0.2930</t>
+  </si>
+  <si>
+    <t>0.8789</t>
   </si>
 </sst>
 </file>
@@ -597,19 +714,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="5.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="8.7265625" style="1"/>
     <col min="5" max="5" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="114.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -620,350 +739,508 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G28" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="1" t="s">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G36" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>81</v>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G40" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
